--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvatore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3413EC69-3991-4B65-871B-4278E012B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B380A-0F82-4630-9315-6DBFD643281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-300" yWindow="2720" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>Da</t>
   </si>
@@ -505,13 +505,37 @@
   </si>
   <si>
     <t>Inedito fino al 62 e poi Universo DC Flash #1 Planeta De Agostini</t>
+  </si>
+  <si>
+    <t>Golden Age</t>
+  </si>
+  <si>
+    <t>The Brave and the Bold vol 1 # 28</t>
+  </si>
+  <si>
+    <t>DC Comics Story #7</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da # 7 a #12</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da # 13 a #19</t>
+  </si>
+  <si>
+    <t>DC Comics Story #12</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da # 20 a #26</t>
+  </si>
+  <si>
+    <t>DC Comics Story #20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +641,25 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF403F3F"/>
+      <name val="Open Sans Condensed"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -655,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -673,6 +716,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1061,139 +1108,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A4:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
     <col min="4" max="4" width="40.54296875" customWidth="1"/>
     <col min="5" max="5" width="39.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:4" ht="26">
+      <c r="A1" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12">
+        <v>21947</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="12">
+        <v>22555</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12">
+        <v>22859</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="12">
+        <v>22859</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.5">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B20" s="2">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C24" s="2">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B21" s="2">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B25" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C25" s="2">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" ht="21">
-      <c r="B22" s="16">
+    <row r="26" spans="1:5" s="16" customFormat="1" ht="21">
+      <c r="B26" s="16">
         <v>17</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C26" s="16">
         <v>20</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1310,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A839C14-656D-4F86-92DE-491800BFF19E}">
   <dimension ref="A4:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B380A-0F82-4630-9315-6DBFD643281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC78D1B-4F80-4014-92F2-751C21B58E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="2720" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
-    <sheet name="Justice League, vol.1" sheetId="14" r:id="rId2"/>
-    <sheet name="The New Titans vol.1" sheetId="8" r:id="rId3"/>
-    <sheet name="The Flash vol.2" sheetId="15" r:id="rId4"/>
-    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId5"/>
-    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId6"/>
+    <sheet name="The Brave and the Bold" sheetId="16" r:id="rId2"/>
+    <sheet name="Justice League, vol.1" sheetId="14" r:id="rId3"/>
+    <sheet name="The New Titans vol.1" sheetId="8" r:id="rId4"/>
+    <sheet name="The Flash vol.2" sheetId="15" r:id="rId5"/>
+    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId6"/>
+    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Da</t>
   </si>
@@ -510,25 +511,43 @@
     <t>Golden Age</t>
   </si>
   <si>
-    <t>The Brave and the Bold vol 1 # 28</t>
-  </si>
-  <si>
     <t>DC Comics Story #7</t>
   </si>
   <si>
-    <t>Justice League of America vol 1 da # 7 a #12</t>
-  </si>
-  <si>
     <t>Justice League of America vol 1 da # 13 a #19</t>
   </si>
   <si>
     <t>DC Comics Story #12</t>
   </si>
   <si>
-    <t>Justice League of America vol 1 da # 20 a #26</t>
-  </si>
-  <si>
-    <t>DC Comics Story #20</t>
+    <t>DC Classic # 1, DC Comics Story #7</t>
+  </si>
+  <si>
+    <t>The Brave and the Bold vol 1 # 28 a #30</t>
+  </si>
+  <si>
+    <t>DC Classic # 1</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da #1 a #8</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da #7 a #12</t>
+  </si>
+  <si>
+    <t>Mystery in Space #75</t>
+  </si>
+  <si>
+    <t>DC Classic #1</t>
+  </si>
+  <si>
+    <t>Adam Strange</t>
+  </si>
+  <si>
+    <t>Justice League of America vol 1 da # 20 a #30</t>
+  </si>
+  <si>
+    <t>DC Classic #3</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1077,7 @@
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1107,16 +1126,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABDDC27-817C-4D02-B80E-0FAC8378BD6C}">
+  <dimension ref="A3:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="12">
+        <v>21947</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="40.54296875" customWidth="1"/>
     <col min="5" max="5" width="39.36328125" customWidth="1"/>
   </cols>
@@ -1127,166 +1174,180 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>75</v>
+      <c r="A2" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="12">
-        <v>21947</v>
+        <v>22555</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B3" s="12">
-        <v>22555</v>
+        <v>22767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B4" s="12">
-        <v>22859</v>
+        <v>22555</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="12">
         <v>22859</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.5">
-      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="12">
+        <v>22859</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.5">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B23" s="2" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B26" s="2">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>16</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" ht="21">
-      <c r="B26" s="16">
+    <row r="27" spans="1:5" s="16" customFormat="1" ht="21">
+      <c r="B27" s="16">
         <v>17</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C27" s="16">
         <v>20</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1296,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:D22"/>
   <sheetViews>
@@ -1404,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A839C14-656D-4F86-92DE-491800BFF19E}">
   <dimension ref="A4:E19"/>
   <sheetViews>
@@ -1506,7 +1567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58256A2-CD6E-4902-ACFF-D75FECFB55F6}">
   <dimension ref="A4:E19"/>
   <sheetViews>
@@ -1612,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E64D6-9344-4DF6-9CEF-C7FD28BC2114}">
   <dimension ref="A6:E16"/>
   <sheetViews>

--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC78D1B-4F80-4014-92F2-751C21B58E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439C4EB-1C03-45F7-B2CC-C7AAFDD55561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="12170" yWindow="1230" windowWidth="36370" windowHeight="18960" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Justice League, vol.1" sheetId="14" r:id="rId3"/>
     <sheet name="The New Titans vol.1" sheetId="8" r:id="rId4"/>
     <sheet name="The Flash vol.2" sheetId="15" r:id="rId5"/>
-    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId6"/>
-    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId7"/>
+    <sheet name="Green Lantern" sheetId="17" r:id="rId6"/>
+    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId7"/>
+    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Da</t>
   </si>
@@ -548,6 +549,188 @@
   </si>
   <si>
     <t>DC Classic #3</t>
+  </si>
+  <si>
+    <t>Justice League vol 2</t>
+  </si>
+  <si>
+    <t>Serie dedicata alla Justice League legata dell'operazione The New 52, un piano editoriale di reboot narrativo e di rilancio della DC Comics che nel 2011 azzerra tutte le testate facendo partire 52 serie regolari tra vecchi e nuovi titoli.</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 57</t>
+    </r>
+  </si>
+  <si>
+    <t>Leggende DC #8</t>
+  </si>
+  <si>
+    <t>Wonder Woman vol 4</t>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 55</t>
+    </r>
+  </si>
+  <si>
+    <t>Leggende DC #9</t>
+  </si>
+  <si>
+    <t>Green Lantern vol 2</t>
+  </si>
+  <si>
+    <t>Storica serie dedicata a Lanterna Verde.</t>
+  </si>
+  <si>
+    <t>La serie. dal #76-87 e 89 viene intitolata "Green Lantern Co-Starring Green Arrow." e dal numero 201 diventa "The Green Lantern Corps" per concludersi con il numero 206.</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1960</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 224</t>
+    </r>
+  </si>
+  <si>
+    <t>Leggende DC #17 #18 #19</t>
+  </si>
+  <si>
+    <t>The Flash vol 1</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1959</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 105-800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 297</t>
+    </r>
+  </si>
+  <si>
+    <t>protagonista: Flash (Barry Allen)</t>
+  </si>
+  <si>
+    <t>Storica serie dedicata a Flash, il velocista scarlatto della DC Comics.</t>
+  </si>
+  <si>
+    <t>La serie prende il posto di Flash Comics proseguendo la sua numerazione. La serie riprende nel 2019 a partire dal #750, numero celebrativo per l'ottantesimo anniversario del personaggio, che segue dal #88 di The Flash vol 5.</t>
+  </si>
+  <si>
+    <t>Leggende DC #19</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A25" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1349,6 +1532,70 @@
       </c>
       <c r="E27" s="16" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21.5">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="21">
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1467,21 +1714,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A839C14-656D-4F86-92DE-491800BFF19E}">
-  <dimension ref="A4:E19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.90625" customWidth="1"/>
     <col min="5" max="5" width="37.36328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="21.5">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B16" s="2">
+        <v>217</v>
+      </c>
+      <c r="C16" s="2">
+        <v>219</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="20" spans="1:1" ht="21.5">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="16" customFormat="1" ht="21">
+      <c r="B35" s="16">
+        <v>6</v>
+      </c>
+      <c r="C35" s="16">
+        <v>11</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="https://www.comicsbox.it/personaggio/flash2" xr:uid="{3F8A6809-5C05-4543-B56B-A68D6CD81C88}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC214E8-4941-45D2-ACF4-AF27448EDA5A}">
+  <dimension ref="A4:D18"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1490,46 +1930,46 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
+      <c r="A7" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
-        <v>57</v>
+      <c r="A8" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="2" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1537,29 +1977,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="2" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="16" customFormat="1" ht="21">
-      <c r="B19" s="16">
-        <v>6</v>
-      </c>
-      <c r="C19" s="16">
-        <v>11</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1567,17 +1993,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58256A2-CD6E-4902-ACFF-D75FECFB55F6}">
-  <dimension ref="A4:E19"/>
+  <dimension ref="A4:E41"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A21" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" customWidth="1"/>
     <col min="4" max="4" width="45.453125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
@@ -1632,7 +2058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="2" customFormat="1" ht="21">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="2" customFormat="1" ht="21">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>1</v>
       </c>
@@ -1651,7 +2077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="16" customFormat="1" ht="21">
+    <row r="19" spans="1:5" s="16" customFormat="1" ht="21">
       <c r="B19" s="16">
         <v>20</v>
       </c>
@@ -1663,17 +2089,82 @@
       </c>
       <c r="E19" s="16" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.5">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/wonderwoman" xr:uid="{8D4E4F86-F334-433B-9E92-30730F1AB598}"/>
+    <hyperlink ref="A37" r:id="rId2" display="https://www.comicsbox.it/personaggio/wonderwoman" xr:uid="{4287291B-BD2F-47AA-8C02-C75DB05CEC30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E64D6-9344-4DF6-9CEF-C7FD28BC2114}">
   <dimension ref="A6:E16"/>
   <sheetViews>

--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439C4EB-1C03-45F7-B2CC-C7AAFDD55561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEFC29E-1232-4C35-B72B-88B340E10359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12170" yWindow="1230" windowWidth="36370" windowHeight="18960" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="8" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
     <sheet name="The Brave and the Bold" sheetId="16" r:id="rId2"/>
-    <sheet name="Justice League, vol.1" sheetId="14" r:id="rId3"/>
-    <sheet name="The New Titans vol.1" sheetId="8" r:id="rId4"/>
-    <sheet name="The Flash vol.2" sheetId="15" r:id="rId5"/>
-    <sheet name="Green Lantern" sheetId="17" r:id="rId6"/>
-    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId7"/>
-    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId8"/>
+    <sheet name="JLA" sheetId="18" r:id="rId3"/>
+    <sheet name="Justice League, vol.1" sheetId="14" r:id="rId4"/>
+    <sheet name="The New Titans vol.1" sheetId="8" r:id="rId5"/>
+    <sheet name="The Flash vol.2" sheetId="15" r:id="rId6"/>
+    <sheet name="Green Lantern" sheetId="17" r:id="rId7"/>
+    <sheet name="Wonder Woman, vol.2" sheetId="13" r:id="rId8"/>
+    <sheet name="Suicide Squad" sheetId="19" r:id="rId9"/>
+    <sheet name="Miniserie e Speciali" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>Da</t>
   </si>
@@ -599,9 +601,6 @@
     </r>
   </si>
   <si>
-    <t>Leggende DC #8</t>
-  </si>
-  <si>
     <t>Wonder Woman vol 4</t>
   </si>
   <si>
@@ -619,9 +618,6 @@
     </r>
   </si>
   <si>
-    <t>Leggende DC #9</t>
-  </si>
-  <si>
     <t>Green Lantern vol 2</t>
   </si>
   <si>
@@ -731,6 +727,117 @@
   </si>
   <si>
     <t>Leggende DC #19</t>
+  </si>
+  <si>
+    <t>JLA</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1997</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-125</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 126</t>
+    </r>
+  </si>
+  <si>
+    <t>Serie dedicata alla Justice League inizialmente scritta dallo scrittore scozzese Grant Morrison.</t>
+  </si>
+  <si>
+    <t>La serie ha riscosso un successo clamoroso, vincendo anche alcuni premi e ispirando l'omonima serie animata.</t>
+  </si>
+  <si>
+    <t>Leggende DC #20</t>
+  </si>
+  <si>
+    <t>Leggende DC #8, #26</t>
+  </si>
+  <si>
+    <t>Leggende DC #9, #29</t>
+  </si>
+  <si>
+    <t>Suicide Squad vol.5</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 50</t>
+    </r>
+  </si>
+  <si>
+    <t>Serie dedicata alla Suicide Squad legata al rilancio editoriale del 2016 della DC Comics denominato Rebirth.</t>
+  </si>
+  <si>
+    <t>Leggende DC #30</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -922,6 +1029,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1308,6 +1416,180 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E64D6-9344-4DF6-9CEF-C7FD28BC2114}">
+  <dimension ref="A6:E16"/>
+  <sheetViews>
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+    <col min="4" max="4" width="39.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1986</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12">
+        <v>31503</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1987</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="12">
+        <v>32021</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>1988</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12">
+        <v>32143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12">
+        <v>32174</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="12">
+        <v>32264</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="15">
+        <v>32325</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1">
+      <c r="A15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="15">
+        <v>32356</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="15">
+        <v>32690</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABDDC27-817C-4D02-B80E-0FAC8378BD6C}">
   <dimension ref="A3:D3"/>
@@ -1336,11 +1618,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE63868B-7077-4A34-A1D4-3802353B0FC8}">
+  <dimension ref="A3:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="51.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="21.5">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="19">
+        <v>35674</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A28" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1592,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:D22"/>
   <sheetViews>
@@ -1712,11 +2086,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A839C14-656D-4F86-92DE-491800BFF19E}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1730,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.5">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1740,17 +2114,17 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1765,7 +2139,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1778,12 +2152,12 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1805,7 +2179,7 @@
         <v>219</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1905,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC214E8-4941-45D2-ACF4-AF27448EDA5A}">
   <dimension ref="A4:D18"/>
   <sheetViews>
@@ -1921,7 +2295,7 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1931,27 +2305,27 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1985,7 +2359,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1993,12 +2367,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58256A2-CD6E-4902-ACFF-D75FECFB55F6}">
   <dimension ref="A4:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A40" sqref="A40:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2093,7 +2467,7 @@
     </row>
     <row r="29" spans="1:5" ht="21.5">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2113,7 +2487,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2149,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2164,173 +2538,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E64D6-9344-4DF6-9CEF-C7FD28BC2114}">
-  <dimension ref="A6:E16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D971C76D-0FE9-48B9-A9C0-7E28FEFF9417}">
+  <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="4" max="4" width="39.6328125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1986</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12">
-        <v>31503</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>1987</v>
-      </c>
-      <c r="C8">
+    <row r="3" spans="1:4" ht="21.5">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="12">
-        <v>32021</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>1988</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="12">
-        <v>32143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="12">
-        <v>32174</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="12">
-        <v>32264</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="14" customFormat="1">
-      <c r="A14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="15">
-        <v>32325</v>
-      </c>
-      <c r="C14" s="14">
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="14" customFormat="1">
-      <c r="A15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="15">
-        <v>32356</v>
-      </c>
-      <c r="C15" s="14">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="14" customFormat="1">
-      <c r="A16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="15">
-        <v>32690</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>65</v>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEFC29E-1232-4C35-B72B-88B340E10359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9694EDF-6D56-47C1-918F-4EFD0BFF499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="8" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>Da</t>
   </si>
@@ -783,12 +783,6 @@
     <t>Leggende DC #20</t>
   </si>
   <si>
-    <t>Leggende DC #8, #26</t>
-  </si>
-  <si>
-    <t>Leggende DC #9, #29</t>
-  </si>
-  <si>
     <t>Suicide Squad vol.5</t>
   </si>
   <si>
@@ -837,7 +831,79 @@
     <t>Serie dedicata alla Suicide Squad legata al rilancio editoriale del 2016 della DC Comics denominato Rebirth.</t>
   </si>
   <si>
-    <t>Leggende DC #30</t>
+    <t>Green Lantern vol 4</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 67</t>
+    </r>
+  </si>
+  <si>
+    <t>Quarta serie regolare dedicata a Lanterna Verde.</t>
+  </si>
+  <si>
+    <t>La serie è il proseguimento di Green Lantern: Rebirth.</t>
+  </si>
+  <si>
+    <t>Leggende DC #8, #26, #33 #41</t>
+  </si>
+  <si>
+    <t>Justice League #23, Rw Lion</t>
+  </si>
+  <si>
+    <t>Leggende DC #30 #43</t>
+  </si>
+  <si>
+    <t>Leggende DC #50</t>
+  </si>
+  <si>
+    <t>Leggende DC #41 #46 #55</t>
+  </si>
+  <si>
+    <t>Leggende DC #36 #44 #48 #56</t>
+  </si>
+  <si>
+    <t>Leggende DC #9, #29, #38 #49 #57</t>
+  </si>
+  <si>
+    <t>Leggende DC #58</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A38" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1966,10 +2032,32 @@
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="16" customFormat="1" ht="21">
+      <c r="B50" s="16">
+        <v>21</v>
+      </c>
+      <c r="C50" s="16">
+        <v>21</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B51" s="2">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A839C14-656D-4F86-92DE-491800BFF19E}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2173,102 +2261,179 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B16" s="2">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <v>129</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B18" s="2">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2">
+        <v>137</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B19" s="2">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2">
+        <v>151</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B20" s="2">
+        <v>170</v>
+      </c>
+      <c r="C20" s="2">
+        <v>170</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B21" s="2">
+        <v>173</v>
+      </c>
+      <c r="C21" s="2">
+        <v>173</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B22" s="2">
         <v>217</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C22" s="2">
         <v>219</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="21.5">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="21.5">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B33" s="2" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B34" s="2">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C40" s="2">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="16" customFormat="1" ht="21">
-      <c r="B35" s="16">
+    <row r="41" spans="1:5" s="16" customFormat="1" ht="21">
+      <c r="B41" s="16">
         <v>6</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C41" s="16">
         <v>11</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B44" s="2">
+        <v>164</v>
+      </c>
+      <c r="C44" s="2">
+        <v>169</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2281,15 +2446,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC214E8-4941-45D2-ACF4-AF27448EDA5A}">
-  <dimension ref="A4:D18"/>
+  <dimension ref="A4:D38"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2343,7 +2508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>76</v>
       </c>
@@ -2362,7 +2527,79 @@
         <v>101</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="21.5">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="https://www.comicsbox.it/serie/GL_REBTH" xr:uid="{CF2FBE15-61ED-4319-9D07-D2771F297F2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2372,7 +2609,7 @@
   <dimension ref="A4:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD41"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2520,13 +2757,13 @@
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2542,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D971C76D-0FE9-48B9-A9C0-7E28FEFF9417}">
   <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2555,7 +2792,7 @@
   <sheetData>
     <row r="3" spans="1:4" ht="21.5">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2565,17 +2802,17 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2595,7 +2832,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2611,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/04 Gruppi DC.xlsx
+++ b/04 Gruppi DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9694EDF-6D56-47C1-918F-4EFD0BFF499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E772C5D-0904-419F-BE04-8BA231B561BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1770" yWindow="1730" windowWidth="38580" windowHeight="19040" activeTab="5" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="137">
   <si>
     <t>Da</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>Leggende DC #58</t>
+  </si>
+  <si>
+    <t>DC Finest: JL The Bridge Between Earths</t>
   </si>
 </sst>
 </file>
@@ -2179,14 +2182,14 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.1796875" customWidth="1"/>
     <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.90625" customWidth="1"/>
+    <col min="4" max="4" width="66.26953125" customWidth="1"/>
     <col min="5" max="5" width="37.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2423,6 +2426,17 @@
       </c>
       <c r="E41" s="16" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B43" s="2">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <v>72</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="21">
